--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H2">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J2">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>70.4007489744</v>
+        <v>0.3808687387093334</v>
       </c>
       <c r="R2">
-        <v>633.6067407695999</v>
+        <v>3.427818648384</v>
       </c>
       <c r="S2">
-        <v>0.01186952374413816</v>
+        <v>0.0001250548139589593</v>
       </c>
       <c r="T2">
-        <v>0.01186952374413816</v>
+        <v>0.0001250548139589593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H3">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J3">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>70.73056072203333</v>
+        <v>31.04797731359644</v>
       </c>
       <c r="R3">
-        <v>636.5750464983</v>
+        <v>279.431795822368</v>
       </c>
       <c r="S3">
-        <v>0.01192512980553181</v>
+        <v>0.01019432321988742</v>
       </c>
       <c r="T3">
-        <v>0.01192512980553181</v>
+        <v>0.01019432321988742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.848425</v>
+        <v>3.445154666666667</v>
       </c>
       <c r="H4">
-        <v>23.545275</v>
+        <v>10.335464</v>
       </c>
       <c r="I4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942287</v>
       </c>
       <c r="J4">
-        <v>0.02436729568045431</v>
+        <v>0.01110365039942286</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>3.396466090008333</v>
+        <v>2.388591188338666</v>
       </c>
       <c r="R4">
-        <v>30.568194810075</v>
+        <v>21.497320695048</v>
       </c>
       <c r="S4">
-        <v>0.0005726421307843421</v>
+        <v>0.000784272365576486</v>
       </c>
       <c r="T4">
-        <v>0.0005726421307843421</v>
+        <v>0.000784272365576486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>873.989883</v>
       </c>
       <c r="I5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J5">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>2613.243734008128</v>
+        <v>32.20710984847199</v>
       </c>
       <c r="R5">
-        <v>23519.19360607315</v>
+        <v>289.863988636248</v>
       </c>
       <c r="S5">
-        <v>0.4405913147502006</v>
+        <v>0.010574913929416</v>
       </c>
       <c r="T5">
-        <v>0.4405913147502006</v>
+        <v>0.010574913929416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>873.989883</v>
       </c>
       <c r="I6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J6">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>2625.486195849244</v>
@@ -818,10 +818,10 @@
         <v>23629.37576264319</v>
       </c>
       <c r="S6">
-        <v>0.4426553864202715</v>
+        <v>0.8620547039023684</v>
       </c>
       <c r="T6">
-        <v>0.4426553864202715</v>
+        <v>0.8620547039023685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>873.989883</v>
       </c>
       <c r="I7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="J7">
-        <v>0.9045029162236017</v>
+        <v>0.938949437922138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>126.075274152451</v>
+        <v>201.984597230559</v>
       </c>
       <c r="R7">
-        <v>1134.677467372059</v>
+        <v>1817.861375075031</v>
       </c>
       <c r="S7">
-        <v>0.02125621505312967</v>
+        <v>0.06631982009035357</v>
       </c>
       <c r="T7">
-        <v>0.02125621505312967</v>
+        <v>0.06631982009035359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H8">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J8">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>205.504559144064</v>
+        <v>1.713239931832</v>
       </c>
       <c r="R8">
-        <v>1849.541032296576</v>
+        <v>15.419159386488</v>
       </c>
       <c r="S8">
-        <v>0.03464794451513718</v>
+        <v>0.0005625268738735173</v>
       </c>
       <c r="T8">
-        <v>0.03464794451513718</v>
+        <v>0.0005625268738735174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H9">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J9">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>206.4673019953164</v>
+        <v>139.6613298232973</v>
       </c>
       <c r="R9">
-        <v>1858.205717957848</v>
+        <v>1256.951968409676</v>
       </c>
       <c r="S9">
-        <v>0.03481026237821269</v>
+        <v>0.04585653755017752</v>
       </c>
       <c r="T9">
-        <v>0.03481026237821269</v>
+        <v>0.04585653755017753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.91008466666667</v>
+        <v>15.497141</v>
       </c>
       <c r="H10">
-        <v>68.730254</v>
+        <v>46.491423</v>
       </c>
       <c r="I10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="J10">
-        <v>0.07112978809594397</v>
+        <v>0.04994691167843914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>9.914514783482444</v>
+        <v>10.744462300979</v>
       </c>
       <c r="R10">
-        <v>89.230633051342</v>
+        <v>96.70016070881098</v>
       </c>
       <c r="S10">
-        <v>0.00167158120259411</v>
+        <v>0.003527847254388099</v>
       </c>
       <c r="T10">
-        <v>0.00167158120259411</v>
+        <v>0.0035278472543881</v>
       </c>
     </row>
   </sheetData>
